--- a/Code/Results/Cases/Case_0_74/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_74/res_line/loading_percent.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9.908452155186644</v>
+        <v>12.84410826922045</v>
       </c>
       <c r="D2">
-        <v>4.221864965721172</v>
+        <v>6.830014871696181</v>
       </c>
       <c r="E2">
-        <v>8.292166806156771</v>
+        <v>12.98835497247734</v>
       </c>
       <c r="F2">
-        <v>28.15705092222203</v>
+        <v>34.76132527280819</v>
       </c>
       <c r="G2">
-        <v>40.7162134979363</v>
+        <v>47.12024611927611</v>
       </c>
       <c r="H2">
-        <v>12.46835915076854</v>
+        <v>18.66121204132419</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>20.32930947671477</v>
+        <v>17.19094018507253</v>
       </c>
       <c r="L2">
-        <v>5.065451839507713</v>
+        <v>8.961393697488566</v>
       </c>
       <c r="M2">
-        <v>16.49471684095955</v>
+        <v>19.19045779502031</v>
       </c>
       <c r="N2">
-        <v>12.44330344401851</v>
+        <v>19.30386217300407</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>9.543534257895846</v>
+        <v>12.81451351674249</v>
       </c>
       <c r="D3">
-        <v>4.294907127533492</v>
+        <v>6.848036130100889</v>
       </c>
       <c r="E3">
-        <v>8.178606515243107</v>
+        <v>13.00623247203151</v>
       </c>
       <c r="F3">
-        <v>27.19622482340652</v>
+        <v>34.70824958172737</v>
       </c>
       <c r="G3">
-        <v>39.16354354047061</v>
+        <v>46.99469698285535</v>
       </c>
       <c r="H3">
-        <v>12.31093215904156</v>
+        <v>18.69788781148026</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>18.9158197335104</v>
+        <v>16.83706394540688</v>
       </c>
       <c r="L3">
-        <v>5.100428021380588</v>
+        <v>8.981874230174501</v>
       </c>
       <c r="M3">
-        <v>15.65846402984821</v>
+        <v>19.05759094293973</v>
       </c>
       <c r="N3">
-        <v>12.71114422595388</v>
+        <v>19.37716241867831</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>9.320426953762214</v>
+        <v>12.79926537814043</v>
       </c>
       <c r="D4">
-        <v>4.340134470020303</v>
+        <v>6.8595555708169</v>
       </c>
       <c r="E4">
-        <v>8.113945736585853</v>
+        <v>13.01946519715295</v>
       </c>
       <c r="F4">
-        <v>26.62206622681601</v>
+        <v>34.6860266774282</v>
       </c>
       <c r="G4">
-        <v>38.23251699507583</v>
+        <v>46.93345942157793</v>
       </c>
       <c r="H4">
-        <v>12.22551646622012</v>
+        <v>18.72449135834957</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>18.00015995908296</v>
+        <v>16.61994471517176</v>
       </c>
       <c r="L4">
-        <v>5.123606639356085</v>
+        <v>8.995295140787512</v>
       </c>
       <c r="M4">
-        <v>15.13209131656073</v>
+        <v>18.97960882837487</v>
       </c>
       <c r="N4">
-        <v>12.87801711541779</v>
+        <v>19.42413616522578</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>9.229854626873944</v>
+        <v>12.79379037634084</v>
       </c>
       <c r="D5">
-        <v>4.358679184970081</v>
+        <v>6.864364605313253</v>
       </c>
       <c r="E5">
-        <v>8.08884953331715</v>
+        <v>13.02542432961612</v>
       </c>
       <c r="F5">
-        <v>26.39224466134609</v>
+        <v>34.6795783242795</v>
       </c>
       <c r="G5">
-        <v>37.85906211835568</v>
+        <v>46.91249799524311</v>
       </c>
       <c r="H5">
-        <v>12.19344454644598</v>
+        <v>18.7363564929915</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>17.61488211029228</v>
+        <v>16.53163593031439</v>
       </c>
       <c r="L5">
-        <v>5.133472930734095</v>
+        <v>9.000977331796603</v>
       </c>
       <c r="M5">
-        <v>14.91458378323488</v>
+        <v>18.94876258076206</v>
       </c>
       <c r="N5">
-        <v>12.9466805646944</v>
+        <v>19.44377483809453</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9.214839333336023</v>
+        <v>12.7929259681964</v>
       </c>
       <c r="D6">
-        <v>4.36176594713042</v>
+        <v>6.865170089078157</v>
       </c>
       <c r="E6">
-        <v>8.084757416846939</v>
+        <v>13.02644804697249</v>
       </c>
       <c r="F6">
-        <v>26.3543391982134</v>
+        <v>34.67866505688909</v>
       </c>
       <c r="G6">
-        <v>37.79741948341618</v>
+        <v>46.90925867836572</v>
       </c>
       <c r="H6">
-        <v>12.18828148106263</v>
+        <v>18.73838844006843</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>17.55017024184367</v>
+        <v>16.5169863316501</v>
       </c>
       <c r="L6">
-        <v>5.135136431792873</v>
+        <v>9.00193373494487</v>
       </c>
       <c r="M6">
-        <v>14.878293194806</v>
+        <v>18.94369764465551</v>
       </c>
       <c r="N6">
-        <v>12.95812352113128</v>
+        <v>19.44706586574244</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>9.319203916422504</v>
+        <v>12.79918854488342</v>
       </c>
       <c r="D7">
-        <v>4.34038408405362</v>
+        <v>6.859619961766773</v>
       </c>
       <c r="E7">
-        <v>8.113602232613507</v>
+        <v>13.01954327042752</v>
       </c>
       <c r="F7">
-        <v>26.61894971382952</v>
+        <v>34.68592915500254</v>
       </c>
       <c r="G7">
-        <v>38.22745592031257</v>
+        <v>46.93316055332827</v>
       </c>
       <c r="H7">
-        <v>12.22507298120745</v>
+        <v>18.72464723401012</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>17.99501328196758</v>
+        <v>16.61875289620361</v>
       </c>
       <c r="L7">
-        <v>5.123738005096741</v>
+        <v>8.99537090962184</v>
       </c>
       <c r="M7">
-        <v>15.12916975445119</v>
+        <v>18.97918901635967</v>
       </c>
       <c r="N7">
-        <v>12.87894038860466</v>
+        <v>19.42439900655963</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>9.782490587493838</v>
+        <v>12.83329971842856</v>
       </c>
       <c r="D8">
-        <v>4.246982960356116</v>
+        <v>6.836134627163356</v>
       </c>
       <c r="E8">
-        <v>8.251948099301996</v>
+        <v>12.99405061779993</v>
       </c>
       <c r="F8">
-        <v>27.82258613938514</v>
+        <v>34.74087479708734</v>
       </c>
       <c r="G8">
-        <v>40.17641231205364</v>
+        <v>47.07367332163795</v>
       </c>
       <c r="H8">
-        <v>12.41169032107186</v>
+        <v>18.67300831118859</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>19.85177525675939</v>
+        <v>17.06896609941582</v>
       </c>
       <c r="L8">
-        <v>5.077153466260554</v>
+        <v>8.968280073090185</v>
       </c>
       <c r="M8">
-        <v>16.20918566714935</v>
+        <v>19.14391517429809</v>
       </c>
       <c r="N8">
-        <v>12.53518654630464</v>
+        <v>19.32872894326603</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>10.69455235651161</v>
+        <v>12.92319301523582</v>
       </c>
       <c r="D9">
-        <v>4.065910331435282</v>
+        <v>6.793660400635555</v>
       </c>
       <c r="E9">
-        <v>8.564299360669898</v>
+        <v>12.9619811236263</v>
       </c>
       <c r="F9">
-        <v>30.30109185172072</v>
+        <v>34.93070658381843</v>
       </c>
       <c r="G9">
-        <v>44.16268634788789</v>
+        <v>47.47439820788764</v>
       </c>
       <c r="H9">
-        <v>12.87080382750053</v>
+        <v>18.60428378243653</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>23.11984298708845</v>
+        <v>17.94764258307546</v>
       </c>
       <c r="L9">
-        <v>4.999685337852118</v>
+        <v>8.92184877085502</v>
       </c>
       <c r="M9">
-        <v>18.21652131755336</v>
+        <v>19.49423242963057</v>
       </c>
       <c r="N9">
-        <v>11.87764236173931</v>
+        <v>19.15664265262399</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>11.36252333239535</v>
+        <v>13.00295811912265</v>
       </c>
       <c r="D10">
-        <v>3.932749259523869</v>
+        <v>6.764602854553818</v>
       </c>
       <c r="E10">
-        <v>8.82000625364847</v>
+        <v>12.94937080053869</v>
       </c>
       <c r="F10">
-        <v>32.18664863200994</v>
+        <v>35.11982735347638</v>
       </c>
       <c r="G10">
-        <v>47.17878573705067</v>
+        <v>47.84399211043674</v>
       </c>
       <c r="H10">
-        <v>13.27014024824662</v>
+        <v>18.57379554575657</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>25.30233732120728</v>
+        <v>18.58361286181819</v>
       </c>
       <c r="L10">
-        <v>4.951808477550496</v>
+        <v>8.891792831520522</v>
       </c>
       <c r="M10">
-        <v>19.83871704164529</v>
+        <v>19.76646507452584</v>
       </c>
       <c r="N10">
-        <v>11.40062512897664</v>
+        <v>19.03955188001465</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>11.66536754180945</v>
+        <v>13.04214601217438</v>
       </c>
       <c r="D11">
-        <v>3.871798473703579</v>
+        <v>6.751842925465451</v>
       </c>
       <c r="E11">
-        <v>8.942304977302285</v>
+        <v>12.94601510858633</v>
       </c>
       <c r="F11">
-        <v>33.05766550784751</v>
+        <v>35.21650567133523</v>
       </c>
       <c r="G11">
-        <v>48.56861969851911</v>
+        <v>48.0281045459913</v>
       </c>
       <c r="H11">
-        <v>13.46639034340884</v>
+        <v>18.56429997017195</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>26.24986196409914</v>
+        <v>18.86946321568541</v>
       </c>
       <c r="L11">
-        <v>4.932137751593358</v>
+        <v>8.878995654585191</v>
       </c>
       <c r="M11">
-        <v>20.58776972057645</v>
+        <v>19.89313454884093</v>
       </c>
       <c r="N11">
-        <v>11.18394023498386</v>
+        <v>18.98828644419201</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>11.77987570997708</v>
+        <v>13.05739507660658</v>
       </c>
       <c r="D12">
-        <v>3.848632315471459</v>
+        <v>6.747076446359221</v>
       </c>
       <c r="E12">
-        <v>8.989501231345127</v>
+        <v>12.94508675363403</v>
       </c>
       <c r="F12">
-        <v>33.38940012432138</v>
+        <v>35.25463008704699</v>
       </c>
       <c r="G12">
-        <v>49.09748119638186</v>
+        <v>48.10008394037534</v>
       </c>
       <c r="H12">
-        <v>13.54289713157455</v>
+        <v>18.56133520492355</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>26.60233911592724</v>
+        <v>18.97710312840248</v>
       </c>
       <c r="L12">
-        <v>4.925006277526639</v>
+        <v>8.874275214121537</v>
       </c>
       <c r="M12">
-        <v>20.86655859142286</v>
+        <v>19.94147284895734</v>
       </c>
       <c r="N12">
-        <v>11.10183967945186</v>
+        <v>18.96915915941092</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>11.75522220200157</v>
+        <v>13.05409283930354</v>
       </c>
       <c r="D13">
-        <v>3.853625894954593</v>
+        <v>6.748100090892452</v>
       </c>
       <c r="E13">
-        <v>8.979296899646981</v>
+        <v>12.94527146556178</v>
       </c>
       <c r="F13">
-        <v>33.31787018887702</v>
+        <v>35.24635224729503</v>
       </c>
       <c r="G13">
-        <v>48.9834663847747</v>
+        <v>48.08448203452049</v>
       </c>
       <c r="H13">
-        <v>13.52632103114651</v>
+        <v>18.5619456261698</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>26.52670526955274</v>
+        <v>18.95394952956928</v>
       </c>
       <c r="L13">
-        <v>4.926527808010054</v>
+        <v>8.875286265458152</v>
       </c>
       <c r="M13">
-        <v>20.80673003711481</v>
+        <v>19.93104638842758</v>
       </c>
       <c r="N13">
-        <v>11.1195251442025</v>
+        <v>18.97326587792117</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>11.67479173264349</v>
+        <v>13.04339240315599</v>
       </c>
       <c r="D14">
-        <v>3.869894482948718</v>
+        <v>6.751449475928703</v>
       </c>
       <c r="E14">
-        <v>8.946169959940464</v>
+        <v>12.94593187099922</v>
       </c>
       <c r="F14">
-        <v>33.08491929365237</v>
+        <v>35.21961194214634</v>
       </c>
       <c r="G14">
-        <v>48.61207774812419</v>
+        <v>48.03398127599721</v>
       </c>
       <c r="H14">
-        <v>13.47264013611656</v>
+        <v>18.56404340006058</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>26.27898621840411</v>
+        <v>18.87833154716269</v>
       </c>
       <c r="L14">
-        <v>4.931544592611117</v>
+        <v>8.878604786209321</v>
       </c>
       <c r="M14">
-        <v>20.61080234795621</v>
+        <v>19.89710413367325</v>
       </c>
       <c r="N14">
-        <v>11.17718726845091</v>
+        <v>18.98670711256344</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>11.62550285749966</v>
+        <v>13.03689115572481</v>
       </c>
       <c r="D15">
-        <v>3.879847353052865</v>
+        <v>6.753509576931722</v>
       </c>
       <c r="E15">
-        <v>8.925994733838273</v>
+        <v>12.94638097358339</v>
       </c>
       <c r="F15">
-        <v>32.9424782181397</v>
+        <v>35.20342942331581</v>
       </c>
       <c r="G15">
-        <v>48.38492683254526</v>
+        <v>48.00334120732623</v>
       </c>
       <c r="H15">
-        <v>13.44004724489223</v>
+        <v>18.56541057898833</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>26.1264325554847</v>
+        <v>18.83193140079689</v>
       </c>
       <c r="L15">
-        <v>4.934659302087471</v>
+        <v>8.880653820105762</v>
       </c>
       <c r="M15">
-        <v>20.49016269247946</v>
+        <v>19.87636081468565</v>
       </c>
       <c r="N15">
-        <v>11.21249801786722</v>
+        <v>18.99497742807808</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>11.34270860934541</v>
+        <v>13.00045484053366</v>
       </c>
       <c r="D16">
-        <v>3.936722365301573</v>
+        <v>6.765445929038623</v>
       </c>
       <c r="E16">
-        <v>8.812136055162519</v>
+        <v>12.9496380152537</v>
       </c>
       <c r="F16">
-        <v>32.1299906228729</v>
+        <v>35.11372207912068</v>
       </c>
       <c r="G16">
-        <v>47.08831291025437</v>
+        <v>47.83227837696391</v>
       </c>
       <c r="H16">
-        <v>13.25761627539634</v>
+        <v>18.5745042973356</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>25.23951818487439</v>
+        <v>18.56485290645351</v>
       </c>
       <c r="L16">
-        <v>4.95313761299052</v>
+        <v>8.892646746056622</v>
       </c>
       <c r="M16">
-        <v>19.78907580406619</v>
+        <v>19.75824083652238</v>
       </c>
       <c r="N16">
-        <v>11.41478467101286</v>
+        <v>19.04294228803026</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>11.16893820154406</v>
+        <v>12.97884028891487</v>
       </c>
       <c r="D17">
-        <v>3.971495794171793</v>
+        <v>6.772885567791382</v>
       </c>
       <c r="E17">
-        <v>8.743834781522207</v>
+        <v>12.95224594065496</v>
       </c>
       <c r="F17">
-        <v>31.6349306398949</v>
+        <v>35.06140540675645</v>
       </c>
       <c r="G17">
-        <v>46.29741147892713</v>
+        <v>47.73140466416276</v>
       </c>
       <c r="H17">
-        <v>13.14950238678295</v>
+        <v>18.58120476875488</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>24.68394844773194</v>
+        <v>18.40004453195451</v>
       </c>
       <c r="L17">
-        <v>4.965023128446422</v>
+        <v>8.900228010324218</v>
       </c>
       <c r="M17">
-        <v>19.35015546611158</v>
+        <v>19.68647764493027</v>
       </c>
       <c r="N17">
-        <v>11.53889881610893</v>
+        <v>19.07287811917328</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>11.06889452839222</v>
+        <v>12.96668186719189</v>
       </c>
       <c r="D18">
-        <v>3.991463294540637</v>
+        <v>6.77720783671327</v>
       </c>
       <c r="E18">
-        <v>8.705110543140577</v>
+        <v>12.95397005087539</v>
       </c>
       <c r="F18">
-        <v>31.35143132367764</v>
+        <v>35.0323174798959</v>
       </c>
       <c r="G18">
-        <v>45.84417496636217</v>
+        <v>47.67489170653656</v>
       </c>
       <c r="H18">
-        <v>13.0886856394934</v>
+        <v>18.5854702678616</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>24.36012340082702</v>
+        <v>18.30493192375974</v>
       </c>
       <c r="L18">
-        <v>4.972056902715327</v>
+        <v>8.904670970055015</v>
       </c>
       <c r="M18">
-        <v>19.09440795359036</v>
+        <v>19.64546985007518</v>
       </c>
       <c r="N18">
-        <v>11.61032144068178</v>
+        <v>19.0902847462045</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>11.03500614410453</v>
+        <v>12.96261247221516</v>
       </c>
       <c r="D19">
-        <v>3.998219146109166</v>
+        <v>6.77867871517882</v>
       </c>
       <c r="E19">
-        <v>8.692094805621586</v>
+        <v>12.95459229173819</v>
       </c>
       <c r="F19">
-        <v>31.25565850041464</v>
+        <v>35.02264157453448</v>
       </c>
       <c r="G19">
-        <v>45.69100503453029</v>
+        <v>47.65601729294769</v>
       </c>
       <c r="H19">
-        <v>13.06832624513344</v>
+        <v>18.58698511133272</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>24.24974201021307</v>
+        <v>18.27267702131374</v>
       </c>
       <c r="L19">
-        <v>4.97447193976536</v>
+        <v>8.906189444664612</v>
       </c>
       <c r="M19">
-        <v>19.00724634537135</v>
+        <v>19.63163250332008</v>
       </c>
       <c r="N19">
-        <v>11.63451264117769</v>
+        <v>19.09621072972699</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>11.18744649176242</v>
+        <v>12.9811129234449</v>
       </c>
       <c r="D20">
-        <v>3.967797763683995</v>
+        <v>6.772089139700162</v>
       </c>
       <c r="E20">
-        <v>8.751047354111197</v>
+        <v>12.9519451284811</v>
       </c>
       <c r="F20">
-        <v>31.6875018926199</v>
+        <v>35.06687088585683</v>
       </c>
       <c r="G20">
-        <v>46.38143183491972</v>
+        <v>47.74198714319595</v>
       </c>
       <c r="H20">
-        <v>13.16086910531846</v>
+        <v>18.58044888092466</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>24.74353105799971</v>
+        <v>18.41762250670372</v>
       </c>
       <c r="L20">
-        <v>4.963737352862883</v>
+        <v>8.899412444245918</v>
       </c>
       <c r="M20">
-        <v>19.39721893959199</v>
+        <v>19.69408942681945</v>
       </c>
       <c r="N20">
-        <v>11.52568361784806</v>
+        <v>19.06967192024523</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>11.69842090084281</v>
+        <v>13.04652433405309</v>
       </c>
       <c r="D21">
-        <v>3.86511858846898</v>
+        <v>6.750463908609153</v>
       </c>
       <c r="E21">
-        <v>8.95587592443262</v>
+        <v>12.9457286025651</v>
       </c>
       <c r="F21">
-        <v>33.15329085441442</v>
+        <v>35.22742526095649</v>
       </c>
       <c r="G21">
-        <v>48.72109356203262</v>
+        <v>48.04875356513488</v>
       </c>
       <c r="H21">
-        <v>13.48834727972129</v>
+        <v>18.56341009267521</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>26.3519175503821</v>
+        <v>18.90055964385949</v>
       </c>
       <c r="L21">
-        <v>4.93006230594889</v>
+        <v>8.877626650671919</v>
       </c>
       <c r="M21">
-        <v>20.66848170196616</v>
+        <v>19.90706400520679</v>
       </c>
       <c r="N21">
-        <v>11.16025255101739</v>
+        <v>18.98275135277152</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>12.03136920717585</v>
+        <v>13.09165701762375</v>
       </c>
       <c r="D22">
-        <v>3.797497073800679</v>
+        <v>6.736711710187625</v>
       </c>
       <c r="E22">
-        <v>9.094912810647937</v>
+        <v>12.94366126486026</v>
       </c>
       <c r="F22">
-        <v>34.12237782340438</v>
+        <v>35.34117464699924</v>
       </c>
       <c r="G22">
-        <v>50.26520195841312</v>
+        <v>48.26239519301099</v>
       </c>
       <c r="H22">
-        <v>13.71519264448561</v>
+        <v>18.55595298522555</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>27.36629312316883</v>
+        <v>19.21261259555192</v>
       </c>
       <c r="L22">
-        <v>4.909911590337552</v>
+        <v>8.86412016831723</v>
       </c>
       <c r="M22">
-        <v>21.47107202087292</v>
+        <v>20.04840270359764</v>
       </c>
       <c r="N22">
-        <v>10.92110024526738</v>
+        <v>18.92760893327221</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>11.85376378282533</v>
+        <v>13.06735362121665</v>
       </c>
       <c r="D23">
-        <v>3.833646255731656</v>
+        <v>6.744016808008658</v>
       </c>
       <c r="E23">
-        <v>9.020223836272528</v>
+        <v>12.94458208162347</v>
       </c>
       <c r="F23">
-        <v>33.60412913436424</v>
+        <v>35.27966374385523</v>
       </c>
       <c r="G23">
-        <v>49.43968235629721</v>
+        <v>48.14718106948717</v>
       </c>
       <c r="H23">
-        <v>13.59291566368059</v>
+        <v>18.55959577018557</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>26.82820362556116</v>
+        <v>19.04642522809841</v>
       </c>
       <c r="L23">
-        <v>4.920491285605723</v>
+        <v>8.871261974575171</v>
       </c>
       <c r="M23">
-        <v>21.04524547501494</v>
+        <v>19.97278296081973</v>
       </c>
       <c r="N23">
-        <v>11.0488026971653</v>
+        <v>18.95688768667165</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>11.17907932996071</v>
+        <v>12.98008462979291</v>
       </c>
       <c r="D24">
-        <v>3.969469716327841</v>
+        <v>6.772449064236501</v>
       </c>
       <c r="E24">
-        <v>8.747784860320056</v>
+        <v>12.95208042551637</v>
       </c>
       <c r="F24">
-        <v>31.66373094783023</v>
+        <v>35.06439685893051</v>
       </c>
       <c r="G24">
-        <v>46.3434416731322</v>
+        <v>47.73719818939141</v>
       </c>
       <c r="H24">
-        <v>13.15572604699852</v>
+        <v>18.58078933052862</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>24.71660754285634</v>
+        <v>18.4096766237791</v>
       </c>
       <c r="L24">
-        <v>4.964318028128429</v>
+        <v>8.899780898780719</v>
       </c>
       <c r="M24">
-        <v>19.37595216471868</v>
+        <v>19.69064735936624</v>
       </c>
       <c r="N24">
-        <v>11.53165799115721</v>
+        <v>19.07112083173448</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>10.44793587627758</v>
+        <v>12.89644040744519</v>
       </c>
       <c r="D25">
-        <v>4.114809069921727</v>
+        <v>6.80477106765796</v>
       </c>
       <c r="E25">
-        <v>8.475282393116668</v>
+        <v>12.96873500899699</v>
       </c>
       <c r="F25">
-        <v>29.61882731896014</v>
+        <v>34.87059386196561</v>
       </c>
       <c r="G25">
-        <v>43.06825567682857</v>
+        <v>47.3526860550315</v>
       </c>
       <c r="H25">
-        <v>12.7360811967452</v>
+        <v>18.61937381436615</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>22.27479891176565</v>
+        <v>17.71113197356196</v>
       </c>
       <c r="L25">
-        <v>5.019100658260456</v>
+        <v>8.933695511560726</v>
       </c>
       <c r="M25">
-        <v>17.68627665149612</v>
+        <v>19.39672012446612</v>
       </c>
       <c r="N25">
-        <v>12.05414537032399</v>
+        <v>19.2015474032033</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_74/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_74/res_line/loading_percent.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>12.84410826922045</v>
+        <v>9.908452155186662</v>
       </c>
       <c r="D2">
-        <v>6.830014871696181</v>
+        <v>4.221864965721308</v>
       </c>
       <c r="E2">
-        <v>12.98835497247734</v>
+        <v>8.292166806156786</v>
       </c>
       <c r="F2">
-        <v>34.76132527280819</v>
+        <v>28.15705092222196</v>
       </c>
       <c r="G2">
-        <v>47.12024611927611</v>
+        <v>40.71621349793622</v>
       </c>
       <c r="H2">
-        <v>18.66121204132419</v>
+        <v>12.4683591507685</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>17.19094018507253</v>
+        <v>20.32930947671483</v>
       </c>
       <c r="L2">
-        <v>8.961393697488566</v>
+        <v>5.065451839507657</v>
       </c>
       <c r="M2">
-        <v>19.19045779502031</v>
+        <v>16.49471684095953</v>
       </c>
       <c r="N2">
-        <v>19.30386217300407</v>
+        <v>12.44330344401851</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>12.81451351674249</v>
+        <v>9.543534257895727</v>
       </c>
       <c r="D3">
-        <v>6.848036130100889</v>
+        <v>4.294907127533623</v>
       </c>
       <c r="E3">
-        <v>13.00623247203151</v>
+        <v>8.178606515243066</v>
       </c>
       <c r="F3">
-        <v>34.70824958172737</v>
+        <v>27.19622482340645</v>
       </c>
       <c r="G3">
-        <v>46.99469698285535</v>
+        <v>39.16354354047054</v>
       </c>
       <c r="H3">
-        <v>18.69788781148026</v>
+        <v>12.31093215904159</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>16.83706394540688</v>
+        <v>18.91581973351045</v>
       </c>
       <c r="L3">
-        <v>8.981874230174501</v>
+        <v>5.100428021380647</v>
       </c>
       <c r="M3">
-        <v>19.05759094293973</v>
+        <v>15.65846402984822</v>
       </c>
       <c r="N3">
-        <v>19.37716241867831</v>
+        <v>12.71114422595384</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>12.79926537814043</v>
+        <v>9.320426953762155</v>
       </c>
       <c r="D4">
-        <v>6.8595555708169</v>
+        <v>4.340134470020302</v>
       </c>
       <c r="E4">
-        <v>13.01946519715295</v>
+        <v>8.113945736585862</v>
       </c>
       <c r="F4">
-        <v>34.6860266774282</v>
+        <v>26.62206622681594</v>
       </c>
       <c r="G4">
-        <v>46.93345942157793</v>
+        <v>38.23251699507576</v>
       </c>
       <c r="H4">
-        <v>18.72449135834957</v>
+        <v>12.22551646622008</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>16.61994471517176</v>
+        <v>18.00015995908302</v>
       </c>
       <c r="L4">
-        <v>8.995295140787512</v>
+        <v>5.123606639356089</v>
       </c>
       <c r="M4">
-        <v>18.97960882837487</v>
+        <v>15.13209131656071</v>
       </c>
       <c r="N4">
-        <v>19.42413616522578</v>
+        <v>12.87801711541776</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>12.79379037634084</v>
+        <v>9.229854626873809</v>
       </c>
       <c r="D5">
-        <v>6.864364605313253</v>
+        <v>4.358679184970081</v>
       </c>
       <c r="E5">
-        <v>13.02542432961612</v>
+        <v>8.088849533317104</v>
       </c>
       <c r="F5">
-        <v>34.6795783242795</v>
+        <v>26.39224466134589</v>
       </c>
       <c r="G5">
-        <v>46.91249799524311</v>
+        <v>37.85906211835546</v>
       </c>
       <c r="H5">
-        <v>18.7363564929915</v>
+        <v>12.19344454644589</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>16.53163593031439</v>
+        <v>17.61488211029233</v>
       </c>
       <c r="L5">
-        <v>9.000977331796603</v>
+        <v>5.133472930734063</v>
       </c>
       <c r="M5">
-        <v>18.94876258076206</v>
+        <v>14.91458378323484</v>
       </c>
       <c r="N5">
-        <v>19.44377483809453</v>
+        <v>12.9466805646943</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>12.7929259681964</v>
+        <v>9.214839333336091</v>
       </c>
       <c r="D6">
-        <v>6.865170089078157</v>
+        <v>4.361765947130484</v>
       </c>
       <c r="E6">
-        <v>13.02644804697249</v>
+        <v>8.084757416846934</v>
       </c>
       <c r="F6">
-        <v>34.67866505688909</v>
+        <v>26.35433919821317</v>
       </c>
       <c r="G6">
-        <v>46.90925867836572</v>
+        <v>37.79741948341589</v>
       </c>
       <c r="H6">
-        <v>18.73838844006843</v>
+        <v>12.18828148106249</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>16.5169863316501</v>
+        <v>17.55017024184373</v>
       </c>
       <c r="L6">
-        <v>9.00193373494487</v>
+        <v>5.1351364317929</v>
       </c>
       <c r="M6">
-        <v>18.94369764465551</v>
+        <v>14.87829319480596</v>
       </c>
       <c r="N6">
-        <v>19.44706586574244</v>
+        <v>12.95812352113125</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>12.79918854488342</v>
+        <v>9.31920391642249</v>
       </c>
       <c r="D7">
-        <v>6.859619961766773</v>
+        <v>4.340384084053752</v>
       </c>
       <c r="E7">
-        <v>13.01954327042752</v>
+        <v>8.113602232613456</v>
       </c>
       <c r="F7">
-        <v>34.68592915500254</v>
+        <v>26.61894971382928</v>
       </c>
       <c r="G7">
-        <v>46.93316055332827</v>
+        <v>38.22745592031225</v>
       </c>
       <c r="H7">
-        <v>18.72464723401012</v>
+        <v>12.22507298120731</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>16.61875289620361</v>
+        <v>17.99501328196765</v>
       </c>
       <c r="L7">
-        <v>8.99537090962184</v>
+        <v>5.123738005096742</v>
       </c>
       <c r="M7">
-        <v>18.97918901635967</v>
+        <v>15.12916975445114</v>
       </c>
       <c r="N7">
-        <v>19.42439900655963</v>
+        <v>12.8789403886046</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>12.83329971842856</v>
+        <v>9.782490587493989</v>
       </c>
       <c r="D8">
-        <v>6.836134627163356</v>
+        <v>4.246982960356048</v>
       </c>
       <c r="E8">
-        <v>12.99405061779993</v>
+        <v>8.251948099302075</v>
       </c>
       <c r="F8">
-        <v>34.74087479708734</v>
+        <v>27.82258613938527</v>
       </c>
       <c r="G8">
-        <v>47.07367332163795</v>
+        <v>40.17641231205374</v>
       </c>
       <c r="H8">
-        <v>18.67300831118859</v>
+        <v>12.41169032107189</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>17.06896609941582</v>
+        <v>19.85177525675935</v>
       </c>
       <c r="L8">
-        <v>8.968280073090185</v>
+        <v>5.077153466260587</v>
       </c>
       <c r="M8">
-        <v>19.14391517429809</v>
+        <v>16.20918566714938</v>
       </c>
       <c r="N8">
-        <v>19.32872894326603</v>
+        <v>12.53518654630474</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>12.92319301523582</v>
+        <v>10.69455235651164</v>
       </c>
       <c r="D9">
-        <v>6.793660400635555</v>
+        <v>4.065910331435147</v>
       </c>
       <c r="E9">
-        <v>12.9619811236263</v>
+        <v>8.564299360669946</v>
       </c>
       <c r="F9">
-        <v>34.93070658381843</v>
+        <v>30.30109185172074</v>
       </c>
       <c r="G9">
-        <v>47.47439820788764</v>
+        <v>44.16268634788793</v>
       </c>
       <c r="H9">
-        <v>18.60428378243653</v>
+        <v>12.87080382750048</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>17.94764258307546</v>
+        <v>23.11984298708848</v>
       </c>
       <c r="L9">
-        <v>8.92184877085502</v>
+        <v>4.99968533785212</v>
       </c>
       <c r="M9">
-        <v>19.49423242963057</v>
+        <v>18.21652131755338</v>
       </c>
       <c r="N9">
-        <v>19.15664265262399</v>
+        <v>11.87764236173927</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>13.00295811912265</v>
+        <v>11.36252333239537</v>
       </c>
       <c r="D10">
-        <v>6.764602854553818</v>
+        <v>3.932749259523927</v>
       </c>
       <c r="E10">
-        <v>12.94937080053869</v>
+        <v>8.820006253648526</v>
       </c>
       <c r="F10">
-        <v>35.11982735347638</v>
+        <v>32.18664863200995</v>
       </c>
       <c r="G10">
-        <v>47.84399211043674</v>
+        <v>47.17878573705072</v>
       </c>
       <c r="H10">
-        <v>18.57379554575657</v>
+        <v>13.27014024824669</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>18.58361286181819</v>
+        <v>25.30233732120725</v>
       </c>
       <c r="L10">
-        <v>8.891792831520522</v>
+        <v>4.951808477550515</v>
       </c>
       <c r="M10">
-        <v>19.76646507452584</v>
+        <v>19.83871704164522</v>
       </c>
       <c r="N10">
-        <v>19.03955188001465</v>
+        <v>11.4006251289767</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>13.04214601217438</v>
+        <v>11.66536754180945</v>
       </c>
       <c r="D11">
-        <v>6.751842925465451</v>
+        <v>3.871798473703646</v>
       </c>
       <c r="E11">
-        <v>12.94601510858633</v>
+        <v>8.942304977302213</v>
       </c>
       <c r="F11">
-        <v>35.21650567133523</v>
+        <v>33.05766550784747</v>
       </c>
       <c r="G11">
-        <v>48.0281045459913</v>
+        <v>48.56861969851906</v>
       </c>
       <c r="H11">
-        <v>18.56429997017195</v>
+        <v>13.46639034340881</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>18.86946321568541</v>
+        <v>26.24986196409911</v>
       </c>
       <c r="L11">
-        <v>8.878995654585191</v>
+        <v>4.932137751593301</v>
       </c>
       <c r="M11">
-        <v>19.89313454884093</v>
+        <v>20.58776972057644</v>
       </c>
       <c r="N11">
-        <v>18.98828644419201</v>
+        <v>11.18394023498379</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>13.05739507660658</v>
+        <v>11.77987570997715</v>
       </c>
       <c r="D12">
-        <v>6.747076446359221</v>
+        <v>3.848632315471594</v>
       </c>
       <c r="E12">
-        <v>12.94508675363403</v>
+        <v>8.989501231345162</v>
       </c>
       <c r="F12">
-        <v>35.25463008704699</v>
+        <v>33.38940012432139</v>
       </c>
       <c r="G12">
-        <v>48.10008394037534</v>
+        <v>49.09748119638182</v>
       </c>
       <c r="H12">
-        <v>18.56133520492355</v>
+        <v>13.54289713157461</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>18.97710312840248</v>
+        <v>26.60233911592715</v>
       </c>
       <c r="L12">
-        <v>8.874275214121537</v>
+        <v>4.925006277526559</v>
       </c>
       <c r="M12">
-        <v>19.94147284895734</v>
+        <v>20.86655859142278</v>
       </c>
       <c r="N12">
-        <v>18.96915915941092</v>
+        <v>11.10183967945196</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>13.05409283930354</v>
+        <v>11.75522220200162</v>
       </c>
       <c r="D13">
-        <v>6.748100090892452</v>
+        <v>3.853625894954523</v>
       </c>
       <c r="E13">
-        <v>12.94527146556178</v>
+        <v>8.979296899647036</v>
       </c>
       <c r="F13">
-        <v>35.24635224729503</v>
+        <v>33.31787018887706</v>
       </c>
       <c r="G13">
-        <v>48.08448203452049</v>
+        <v>48.98346638477478</v>
       </c>
       <c r="H13">
-        <v>18.5619456261698</v>
+        <v>13.52632103114654</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>18.95394952956928</v>
+        <v>26.52670526955282</v>
       </c>
       <c r="L13">
-        <v>8.875286265458152</v>
+        <v>4.926527808010086</v>
       </c>
       <c r="M13">
-        <v>19.93104638842758</v>
+        <v>20.80673003711486</v>
       </c>
       <c r="N13">
-        <v>18.97326587792117</v>
+        <v>11.1195251442025</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>13.04339240315599</v>
+        <v>11.6747917326435</v>
       </c>
       <c r="D14">
-        <v>6.751449475928703</v>
+        <v>3.869894482948787</v>
       </c>
       <c r="E14">
-        <v>12.94593187099922</v>
+        <v>8.946169959940534</v>
       </c>
       <c r="F14">
-        <v>35.21961194214634</v>
+        <v>33.08491929365237</v>
       </c>
       <c r="G14">
-        <v>48.03398127599721</v>
+        <v>48.61207774812416</v>
       </c>
       <c r="H14">
-        <v>18.56404340006058</v>
+        <v>13.47264013611656</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>18.87833154716269</v>
+        <v>26.27898621840408</v>
       </c>
       <c r="L14">
-        <v>8.878604786209321</v>
+        <v>4.931544592611179</v>
       </c>
       <c r="M14">
-        <v>19.89710413367325</v>
+        <v>20.61080234795618</v>
       </c>
       <c r="N14">
-        <v>18.98670711256344</v>
+        <v>11.17718726845095</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>13.03689115572481</v>
+        <v>11.62550285749965</v>
       </c>
       <c r="D15">
-        <v>6.753509576931722</v>
+        <v>3.879847353052865</v>
       </c>
       <c r="E15">
-        <v>12.94638097358339</v>
+        <v>8.925994733838323</v>
       </c>
       <c r="F15">
-        <v>35.20342942331581</v>
+        <v>32.94247821813971</v>
       </c>
       <c r="G15">
-        <v>48.00334120732623</v>
+        <v>48.38492683254525</v>
       </c>
       <c r="H15">
-        <v>18.56541057898833</v>
+        <v>13.44004724489228</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>18.83193140079689</v>
+        <v>26.12643255548463</v>
       </c>
       <c r="L15">
-        <v>8.880653820105762</v>
+        <v>4.934659302087555</v>
       </c>
       <c r="M15">
-        <v>19.87636081468565</v>
+        <v>20.4901626924794</v>
       </c>
       <c r="N15">
-        <v>18.99497742807808</v>
+        <v>11.21249801786729</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>13.00045484053366</v>
+        <v>11.34270860934541</v>
       </c>
       <c r="D16">
-        <v>6.765445929038623</v>
+        <v>3.936722365301574</v>
       </c>
       <c r="E16">
-        <v>12.9496380152537</v>
+        <v>8.812136055162556</v>
       </c>
       <c r="F16">
-        <v>35.11372207912068</v>
+        <v>32.1299906228729</v>
       </c>
       <c r="G16">
-        <v>47.83227837696391</v>
+        <v>47.08831291025434</v>
       </c>
       <c r="H16">
-        <v>18.5745042973356</v>
+        <v>13.25761627539628</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>18.56485290645351</v>
+        <v>25.23951818487439</v>
       </c>
       <c r="L16">
-        <v>8.892646746056622</v>
+        <v>4.953137612990553</v>
       </c>
       <c r="M16">
-        <v>19.75824083652238</v>
+        <v>19.78907580406618</v>
       </c>
       <c r="N16">
-        <v>19.04294228803026</v>
+        <v>11.41478467101283</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>12.97884028891487</v>
+        <v>11.1689382015441</v>
       </c>
       <c r="D17">
-        <v>6.772885567791382</v>
+        <v>3.971495794171592</v>
       </c>
       <c r="E17">
-        <v>12.95224594065496</v>
+        <v>8.743834781522212</v>
       </c>
       <c r="F17">
-        <v>35.06140540675645</v>
+        <v>31.6349306398949</v>
       </c>
       <c r="G17">
-        <v>47.73140466416276</v>
+        <v>46.29741147892708</v>
       </c>
       <c r="H17">
-        <v>18.58120476875488</v>
+        <v>13.14950238678296</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>18.40004453195451</v>
+        <v>24.68394844773196</v>
       </c>
       <c r="L17">
-        <v>8.900228010324218</v>
+        <v>4.965023128446424</v>
       </c>
       <c r="M17">
-        <v>19.68647764493027</v>
+        <v>19.3501554661116</v>
       </c>
       <c r="N17">
-        <v>19.07287811917328</v>
+        <v>11.538898816109</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>12.96668186719189</v>
+        <v>11.06889452839224</v>
       </c>
       <c r="D18">
-        <v>6.77720783671327</v>
+        <v>3.991463294540704</v>
       </c>
       <c r="E18">
-        <v>12.95397005087539</v>
+        <v>8.705110543140634</v>
       </c>
       <c r="F18">
-        <v>35.0323174798959</v>
+        <v>31.35143132367764</v>
       </c>
       <c r="G18">
-        <v>47.67489170653656</v>
+        <v>45.8441749663622</v>
       </c>
       <c r="H18">
-        <v>18.5854702678616</v>
+        <v>13.08868563949338</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>18.30493192375974</v>
+        <v>24.36012340082704</v>
       </c>
       <c r="L18">
-        <v>8.904670970055015</v>
+        <v>4.97205690271541</v>
       </c>
       <c r="M18">
-        <v>19.64546985007518</v>
+        <v>19.09440795359039</v>
       </c>
       <c r="N18">
-        <v>19.0902847462045</v>
+        <v>11.61032144068174</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>12.96261247221516</v>
+        <v>11.03500614410455</v>
       </c>
       <c r="D19">
-        <v>6.77867871517882</v>
+        <v>3.998219146109101</v>
       </c>
       <c r="E19">
-        <v>12.95459229173819</v>
+        <v>8.692094805621613</v>
       </c>
       <c r="F19">
-        <v>35.02264157453448</v>
+        <v>31.2556585004146</v>
       </c>
       <c r="G19">
-        <v>47.65601729294769</v>
+        <v>45.69100503453021</v>
       </c>
       <c r="H19">
-        <v>18.58698511133272</v>
+        <v>13.06832624513343</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>18.27267702131374</v>
+        <v>24.2497420102131</v>
       </c>
       <c r="L19">
-        <v>8.906189444664612</v>
+        <v>4.974471939765299</v>
       </c>
       <c r="M19">
-        <v>19.63163250332008</v>
+        <v>19.00724634537135</v>
       </c>
       <c r="N19">
-        <v>19.09621072972699</v>
+        <v>11.63451264117769</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>12.9811129234449</v>
+        <v>11.18744649176241</v>
       </c>
       <c r="D20">
-        <v>6.772089139700162</v>
+        <v>3.967797763684063</v>
       </c>
       <c r="E20">
-        <v>12.9519451284811</v>
+        <v>8.751047354111183</v>
       </c>
       <c r="F20">
-        <v>35.06687088585683</v>
+        <v>31.68750189261995</v>
       </c>
       <c r="G20">
-        <v>47.74198714319595</v>
+        <v>46.38143183491981</v>
       </c>
       <c r="H20">
-        <v>18.58044888092466</v>
+        <v>13.1608691053186</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>18.41762250670372</v>
+        <v>24.74353105799967</v>
       </c>
       <c r="L20">
-        <v>8.899412444245918</v>
+        <v>4.963737352862899</v>
       </c>
       <c r="M20">
-        <v>19.69408942681945</v>
+        <v>19.39721893959194</v>
       </c>
       <c r="N20">
-        <v>19.06967192024523</v>
+        <v>11.52568361784809</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>13.04652433405309</v>
+        <v>11.69842090084286</v>
       </c>
       <c r="D21">
-        <v>6.750463908609153</v>
+        <v>3.86511858846885</v>
       </c>
       <c r="E21">
-        <v>12.9457286025651</v>
+        <v>8.955875924432636</v>
       </c>
       <c r="F21">
-        <v>35.22742526095649</v>
+        <v>33.15329085441439</v>
       </c>
       <c r="G21">
-        <v>48.04875356513488</v>
+        <v>48.72109356203253</v>
       </c>
       <c r="H21">
-        <v>18.56341009267521</v>
+        <v>13.48834727972123</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>18.90055964385949</v>
+        <v>26.35191755038212</v>
       </c>
       <c r="L21">
-        <v>8.877626650671919</v>
+        <v>4.93006230594883</v>
       </c>
       <c r="M21">
-        <v>19.90706400520679</v>
+        <v>20.66848170196614</v>
       </c>
       <c r="N21">
-        <v>18.98275135277152</v>
+        <v>11.16025255101739</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>13.09165701762375</v>
+        <v>12.03136920717585</v>
       </c>
       <c r="D22">
-        <v>6.736711710187625</v>
+        <v>3.797497073800748</v>
       </c>
       <c r="E22">
-        <v>12.94366126486026</v>
+        <v>9.094912810648005</v>
       </c>
       <c r="F22">
-        <v>35.34117464699924</v>
+        <v>34.12237782340438</v>
       </c>
       <c r="G22">
-        <v>48.26239519301099</v>
+        <v>50.26520195841304</v>
       </c>
       <c r="H22">
-        <v>18.55595298522555</v>
+        <v>13.7151926444857</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>19.21261259555192</v>
+        <v>27.36629312316868</v>
       </c>
       <c r="L22">
-        <v>8.86412016831723</v>
+        <v>4.909911590337606</v>
       </c>
       <c r="M22">
-        <v>20.04840270359764</v>
+        <v>21.47107202087279</v>
       </c>
       <c r="N22">
-        <v>18.92760893327221</v>
+        <v>10.92110024526752</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>13.06735362121665</v>
+        <v>11.8537637828253</v>
       </c>
       <c r="D23">
-        <v>6.744016808008658</v>
+        <v>3.833646255731455</v>
       </c>
       <c r="E23">
-        <v>12.94458208162347</v>
+        <v>9.020223836272454</v>
       </c>
       <c r="F23">
-        <v>35.27966374385523</v>
+        <v>33.60412913436421</v>
       </c>
       <c r="G23">
-        <v>48.14718106948717</v>
+        <v>49.43968235629713</v>
       </c>
       <c r="H23">
-        <v>18.55959577018557</v>
+        <v>13.59291566368061</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>19.04642522809841</v>
+        <v>26.82820362556118</v>
       </c>
       <c r="L23">
-        <v>8.871261974575171</v>
+        <v>4.920491285605613</v>
       </c>
       <c r="M23">
-        <v>19.97278296081973</v>
+        <v>21.04524547501499</v>
       </c>
       <c r="N23">
-        <v>18.95688768667165</v>
+        <v>11.04880269716527</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>12.98008462979291</v>
+        <v>11.17907932996069</v>
       </c>
       <c r="D24">
-        <v>6.772449064236501</v>
+        <v>3.969469716327973</v>
       </c>
       <c r="E24">
-        <v>12.95208042551637</v>
+        <v>8.747784860320081</v>
       </c>
       <c r="F24">
-        <v>35.06439685893051</v>
+        <v>31.6637309478302</v>
       </c>
       <c r="G24">
-        <v>47.73719818939141</v>
+        <v>46.34344167313215</v>
       </c>
       <c r="H24">
-        <v>18.58078933052862</v>
+        <v>13.15572604699857</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>18.4096766237791</v>
+        <v>24.71660754285633</v>
       </c>
       <c r="L24">
-        <v>8.899780898780719</v>
+        <v>4.964318028128479</v>
       </c>
       <c r="M24">
-        <v>19.69064735936624</v>
+        <v>19.37595216471864</v>
       </c>
       <c r="N24">
-        <v>19.07112083173448</v>
+        <v>11.53165799115721</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>12.89644040744519</v>
+        <v>10.44793587627758</v>
       </c>
       <c r="D25">
-        <v>6.80477106765796</v>
+        <v>4.114809069921728</v>
       </c>
       <c r="E25">
-        <v>12.96873500899699</v>
+        <v>8.475282393116705</v>
       </c>
       <c r="F25">
-        <v>34.87059386196561</v>
+        <v>29.61882731896008</v>
       </c>
       <c r="G25">
-        <v>47.3526860550315</v>
+        <v>43.06825567682855</v>
       </c>
       <c r="H25">
-        <v>18.61937381436615</v>
+        <v>12.73608119674518</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>17.71113197356196</v>
+        <v>22.27479891176568</v>
       </c>
       <c r="L25">
-        <v>8.933695511560726</v>
+        <v>5.01910065826048</v>
       </c>
       <c r="M25">
-        <v>19.39672012446612</v>
+        <v>17.68627665149613</v>
       </c>
       <c r="N25">
-        <v>19.2015474032033</v>
+        <v>12.05414537032389</v>
       </c>
       <c r="O25">
         <v>0</v>
